--- a/Excel/镇魂街/national_tanlent国战天赋表.xlsx
+++ b/Excel/镇魂街/national_tanlent国战天赋表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12060" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>sheet名</t>
   </si>
@@ -175,72 +175,201 @@
     <t>伐木精通II</t>
   </si>
   <si>
-    <t>2,4,6,8,10</t>
+    <t>2,10,20,30,40</t>
   </si>
   <si>
     <t>0.1,0.2,0.3,0.4,0.5</t>
   </si>
   <si>
-    <t>提升卡牌攻击力%s</t>
+    <t>银木产量提高%s</t>
+  </si>
+  <si>
+    <t>icon_1311002</t>
   </si>
   <si>
     <t>冶炼精通II</t>
   </si>
   <si>
+    <t>赤铁产量提高%s</t>
+  </si>
+  <si>
+    <t>icon_1311003</t>
+  </si>
+  <si>
     <t>采石精通II</t>
   </si>
   <si>
+    <t>精石产量提高%s</t>
+  </si>
+  <si>
+    <t>icon_1311004</t>
+  </si>
+  <si>
     <t>耕犁精通II</t>
   </si>
   <si>
+    <t>灵谷产量提高%s</t>
+  </si>
+  <si>
+    <t>icon_1311005</t>
+  </si>
+  <si>
     <t>高效利用II</t>
   </si>
   <si>
+    <t>0.05,0.10,0.15,0.2,0.25</t>
+  </si>
+  <si>
+    <t>全部资源产量提高%s</t>
+  </si>
+  <si>
+    <t>icon_1309020</t>
+  </si>
+  <si>
     <t>仓库储量上限</t>
   </si>
   <si>
+    <t>10000,20000,30000,60000,100000</t>
+  </si>
+  <si>
+    <t>仓库资源容量提升%s</t>
+  </si>
+  <si>
+    <t>icon_1311006</t>
+  </si>
+  <si>
     <t>采集银木</t>
   </si>
   <si>
+    <t>采集获得银木数量提升%s</t>
+  </si>
+  <si>
+    <t>icon_1311007</t>
+  </si>
+  <si>
     <t>采集赤铁</t>
   </si>
   <si>
+    <t>采集获得赤铁数量提升%s</t>
+  </si>
+  <si>
+    <t>icon_1311008</t>
+  </si>
+  <si>
     <t>采集灵谷</t>
   </si>
   <si>
+    <t>采集获得灵谷数量提升%s</t>
+  </si>
+  <si>
+    <t>icon_1311009</t>
+  </si>
+  <si>
     <t>采集精石</t>
   </si>
   <si>
+    <t>采集获得精石数量提升%s</t>
+  </si>
+  <si>
+    <t>icon_1311010</t>
+  </si>
+  <si>
     <t>采集加速</t>
   </si>
   <si>
+    <t>提升采集速度%s</t>
+  </si>
+  <si>
+    <t>icon_1311011</t>
+  </si>
+  <si>
     <t>采集加成</t>
   </si>
   <si>
+    <t>采集获得资源数量提升%s</t>
+  </si>
+  <si>
+    <t>icon_1309007</t>
+  </si>
+  <si>
     <t>行军加速</t>
   </si>
   <si>
+    <t>队伍行军速度提升%s</t>
+  </si>
+  <si>
+    <t>icon_1311013</t>
+  </si>
+  <si>
     <t>科研加速</t>
   </si>
   <si>
+    <t>科技研究速度提升%s</t>
+  </si>
+  <si>
+    <t>icon_1309009</t>
+  </si>
+  <si>
     <t>行动力上限</t>
   </si>
   <si>
+    <t>5,10,15,20,25</t>
+  </si>
+  <si>
+    <t>卡牌行动力上限提升%s</t>
+  </si>
+  <si>
+    <t>icon_1309010</t>
+  </si>
+  <si>
     <t>行动力恢复</t>
   </si>
   <si>
+    <t>卡牌行动力恢复速度提高%s</t>
+  </si>
+  <si>
+    <t>icon_1309011</t>
+  </si>
+  <si>
     <t>征募加速</t>
   </si>
   <si>
+    <t>征募速度提升</t>
+  </si>
+  <si>
+    <t>icon_1311014</t>
+  </si>
+  <si>
     <t>军力上限</t>
   </si>
   <si>
+    <t>100,200,300,400,500</t>
+  </si>
+  <si>
+    <t>卡牌军力值上限提升%s</t>
+  </si>
+  <si>
+    <t>icon_1311018</t>
+  </si>
+  <si>
     <t>伤害提升</t>
   </si>
   <si>
+    <t>造成伤害提升%s</t>
+  </si>
+  <si>
+    <t>icon_1309014</t>
+  </si>
+  <si>
     <t>伤害减免</t>
   </si>
   <si>
+    <t>受到伤害减免%s</t>
+  </si>
+  <si>
+    <t>icon_1309015</t>
+  </si>
+  <si>
     <t>伐木精通</t>
   </si>
   <si>
@@ -256,10 +385,34 @@
     <t>高效利用</t>
   </si>
   <si>
+    <t>0.03,0.06,0.09,0.12,0.15</t>
+  </si>
+  <si>
     <t>征募消耗资源降低</t>
   </si>
   <si>
+    <t>征募消耗资源降低%s</t>
+  </si>
+  <si>
+    <t>icon_1311015</t>
+  </si>
+  <si>
+    <t>征募速度提升%s</t>
+  </si>
+  <si>
+    <t>icon_1309023</t>
+  </si>
+  <si>
+    <t>icon_1309024</t>
+  </si>
+  <si>
     <t>虎豹王骑-征募速度</t>
+  </si>
+  <si>
+    <t>在虎豹王骑军团中，征募速度提高%s</t>
+  </si>
+  <si>
+    <t>icon_1309025</t>
   </si>
 </sst>
 </file>
@@ -267,10 +420,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -295,37 +448,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,11 +469,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,10 +531,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,14 +550,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,8 +562,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,22 +590,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,13 +606,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,61 +672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +702,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,37 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,25 +786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +847,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -708,21 +897,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,21 +925,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -793,10 +952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,146 +964,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,10 +1152,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2391,52 +2556,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="23"/>
+      <c r="G2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2450,8 +2615,8 @@
   <sheetPr/>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2463,9 +2628,10 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="17.25" customWidth="1"/>
-    <col min="13" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="27.75" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="37.375" customWidth="1"/>
+    <col min="15" max="15" width="34.5" customWidth="1"/>
+    <col min="16" max="16" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:16">
@@ -2602,7 +2768,7 @@
       <c r="K3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="28" t="s">
         <v>44</v>
       </c>
       <c r="M3" s="18" t="s">
@@ -2648,11 +2814,11 @@
       <c r="N4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
+      <c r="P4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:16">
@@ -2666,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -2685,11 +2851,11 @@
       <c r="N5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
+      <c r="O5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:16">
@@ -2703,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -2722,11 +2888,11 @@
       <c r="N6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
+      <c r="O6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:16">
@@ -2740,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -2759,11 +2925,11 @@
       <c r="N7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
+      <c r="O7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:16">
@@ -2777,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2794,13 +2960,13 @@
         <v>50</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:16">
@@ -2814,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2830,14 +2996,14 @@
       <c r="M9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>51</v>
+      <c r="N9" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:16">
@@ -2851,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -2870,11 +3036,11 @@
       <c r="N10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
+      <c r="O10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:16">
@@ -2888,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2907,11 +3073,11 @@
       <c r="N11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
+      <c r="O11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:16">
@@ -2925,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2944,11 +3110,11 @@
       <c r="N12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
+      <c r="O12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:16">
@@ -2962,7 +3128,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2981,11 +3147,11 @@
       <c r="N13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
+      <c r="O13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:16">
@@ -2999,7 +3165,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3018,11 +3184,11 @@
       <c r="N14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
+      <c r="O14" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:16">
@@ -3036,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -3055,11 +3221,11 @@
       <c r="N15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
+      <c r="O15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:16">
@@ -3073,7 +3239,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -3092,11 +3258,11 @@
       <c r="N16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
+      <c r="O16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:16">
@@ -3110,7 +3276,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -3129,11 +3295,11 @@
       <c r="N17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
+      <c r="O17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:16">
@@ -3147,7 +3313,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -3164,13 +3330,13 @@
         <v>50</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:16">
@@ -3184,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -3203,11 +3369,11 @@
       <c r="N19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
+      <c r="O19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:16">
@@ -3221,7 +3387,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -3240,11 +3406,11 @@
       <c r="N20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
+      <c r="O20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:16">
@@ -3258,7 +3424,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -3274,14 +3440,14 @@
       <c r="M21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>51</v>
+      <c r="N21" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:16">
@@ -3295,7 +3461,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -3314,11 +3480,11 @@
       <c r="N22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
+      <c r="O22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:16">
@@ -3332,7 +3498,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -3351,11 +3517,11 @@
       <c r="N23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
+      <c r="O23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:16">
@@ -3369,7 +3535,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -3386,13 +3552,13 @@
         <v>50</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="1">
-        <v>0</v>
+      <c r="P24" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:16">
@@ -3406,7 +3572,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -3423,13 +3589,13 @@
         <v>50</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:16">
@@ -3443,7 +3609,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -3460,13 +3626,13 @@
         <v>50</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:16">
@@ -3480,7 +3646,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3497,13 +3663,13 @@
         <v>50</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:16">
@@ -3517,7 +3683,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -3534,13 +3700,13 @@
         <v>50</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:16">
@@ -3554,7 +3720,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -3574,10 +3740,10 @@
         <v>51</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:16">
@@ -3591,7 +3757,7 @@
         <v>34</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -3604,17 +3770,17 @@
         <f>IF(IF(B30=1,VLOOKUP(C30,[1]效果查询!$A$2:$F$53,6,0),0)="所在队伍",1,IF(IF(B30=1,VLOOKUP(C30,[1]效果查询!$A$2:$F$53,6,0),0)="全局",3,IF(IF(B30=1,VLOOKUP(C30,[1]效果查询!$A$2:$F$53,6,0),0)="卡牌自身",2,"缺省")))</f>
         <v>1</v>
       </c>
-      <c r="M30" s="14" t="s">
+      <c r="M30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="N30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
+      <c r="O30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="16.5" spans="1:17">
@@ -3628,25 +3794,25 @@
         <v>35</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="L31" s="6">
         <f>IF(IF(B31=1,VLOOKUP(C31,[1]效果查询!$A$2:$F$53,6,0),0)="所在队伍",1,IF(IF(B31=1,VLOOKUP(C31,[1]效果查询!$A$2:$F$53,6,0),0)="全局",3,IF(IF(B31=1,VLOOKUP(C31,[1]效果查询!$A$2:$F$53,6,0),0)="卡牌自身",2,"缺省")))</f>
         <v>2</v>
       </c>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="6" t="s">
         <v>50</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O31" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="20"/>
+      <c r="O31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="16.5" spans="1:17">
       <c r="A32" s="11">
@@ -3659,25 +3825,25 @@
         <v>36</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="L32" s="6">
         <f>IF(IF(B32=1,VLOOKUP(C32,[1]效果查询!$A$2:$F$53,6,0),0)="所在队伍",1,IF(IF(B32=1,VLOOKUP(C32,[1]效果查询!$A$2:$F$53,6,0),0)="全局",3,IF(IF(B32=1,VLOOKUP(C32,[1]效果查询!$A$2:$F$53,6,0),0)="卡牌自身",2,"缺省")))</f>
         <v>2</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="6" t="s">
         <v>50</v>
       </c>
       <c r="N32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O32" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="20"/>
+      <c r="O32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" spans="1:17">
       <c r="A33" s="11">
@@ -3690,25 +3856,25 @@
         <v>37</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="L33" s="6">
         <f>IF(IF(B33=1,VLOOKUP(C33,[1]效果查询!$A$2:$F$53,6,0),0)="所在队伍",1,IF(IF(B33=1,VLOOKUP(C33,[1]效果查询!$A$2:$F$53,6,0),0)="全局",3,IF(IF(B33=1,VLOOKUP(C33,[1]效果查询!$A$2:$F$53,6,0),0)="卡牌自身",2,"缺省")))</f>
         <v>2</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M33" s="6" t="s">
         <v>50</v>
       </c>
       <c r="N33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="20"/>
+      <c r="O33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q33" s="24"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="1:17">
       <c r="A34" s="11">
@@ -3721,7 +3887,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -3730,19 +3896,19 @@
         <f>IF(IF(B34=1,VLOOKUP(C34,[1]效果查询!$A$2:$F$53,6,0),0)="所在队伍",1,IF(IF(B34=1,VLOOKUP(C34,[1]效果查询!$A$2:$F$53,6,0),0)="全局",3,IF(IF(B34=1,VLOOKUP(C34,[1]效果查询!$A$2:$F$53,6,0),0)="卡牌自身",2,"缺省")))</f>
         <v>2</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="6" t="s">
         <v>50</v>
       </c>
       <c r="N34" s="14" t="s">
         <v>51</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="20"/>
+        <v>128</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34" s="24"/>
     </row>
     <row r="35" ht="16.5" spans="7:13">
       <c r="G35" s="17"/>

--- a/Excel/镇魂街/national_tanlent国战天赋表.xlsx
+++ b/Excel/镇魂街/national_tanlent国战天赋表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>sheet名</t>
   </si>
@@ -92,6 +92,9 @@
     <t>Tanlent_Unlock</t>
   </si>
   <si>
+    <t>Tanlent_Numeric</t>
+  </si>
+  <si>
     <t>Tanlent_Value</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
   </si>
   <si>
     <t>int:a&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:&lt;</t>
   </si>
   <si>
     <t>float:ae&lt;&gt;</t>
@@ -163,6 +169,11 @@
 所需统御等级</t>
   </si>
   <si>
+    <t>天赋数值类型
+1.百分比
+2.数值</t>
+  </si>
+  <si>
     <t>天赋1-5等级效果</t>
   </si>
   <si>
@@ -373,6 +384,9 @@
     <t>伐木精通</t>
   </si>
   <si>
+    <t>200,400,600,800,1000</t>
+  </si>
+  <si>
     <t>冶炼精通</t>
   </si>
   <si>
@@ -383,9 +397,6 @@
   </si>
   <si>
     <t>高效利用</t>
-  </si>
-  <si>
-    <t>0.03,0.06,0.09,0.12,0.15</t>
   </si>
   <si>
     <t>征募消耗资源降低</t>
@@ -420,10 +431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -447,14 +458,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -462,8 +465,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,14 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,6 +503,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -514,11 +525,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,26 +541,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,16 +571,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,9 +588,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -618,7 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +641,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +665,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,25 +695,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,91 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,13 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,17 +858,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,17 +893,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,8 +920,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,22 +941,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,10 +963,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,16 +975,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,128 +993,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,15 +1163,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2556,52 +2568,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="27"/>
+      <c r="G2" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2613,10 +2625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2628,13 +2640,13 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="17.25" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="14" max="14" width="37.375" customWidth="1"/>
-    <col min="15" max="15" width="34.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="13" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="37.375" customWidth="1"/>
+    <col min="16" max="16" width="34.5" customWidth="1"/>
+    <col min="17" max="17" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:16">
+    <row r="1" ht="15" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2683,108 +2695,117 @@
       <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:16">
+    <row r="2" ht="16.5" spans="1:17">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="M2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>28</v>
+      <c r="Q2" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" ht="60" spans="1:16">
+    <row r="3" ht="60" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:16">
+    <row r="4" ht="16.5" spans="1:17">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2795,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -2809,19 +2830,22 @@
         <v>3</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:16">
+    <row r="5" ht="16.5" spans="1:17">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2832,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -2846,19 +2870,22 @@
         <v>3</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
+    <row r="6" ht="16.5" spans="1:17">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -2869,7 +2896,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -2883,19 +2910,22 @@
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:16">
+    <row r="7" ht="16.5" spans="1:17">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2906,7 +2936,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -2920,19 +2950,22 @@
         <v>3</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:16">
+    <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2943,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2957,19 +2990,22 @@
         <v>3</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:16">
+    <row r="9" ht="16.5" spans="1:17">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2980,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2994,19 +3030,22 @@
         <v>3</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:16">
+    <row r="10" ht="16.5" spans="1:17">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3017,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -3031,19 +3070,22 @@
         <v>1</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:16">
+    <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3054,7 +3096,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -3068,19 +3110,22 @@
         <v>1</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:16">
+    <row r="12" ht="16.5" spans="1:17">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3091,7 +3136,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -3105,19 +3150,22 @@
         <v>1</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:16">
+    <row r="13" ht="16.5" spans="1:17">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3128,7 +3176,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -3142,19 +3190,22 @@
         <v>1</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:16">
+    <row r="14" ht="16.5" spans="1:17">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3165,7 +3216,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3179,19 +3230,22 @@
         <v>1</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>85</v>
+        <v>53</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:16">
+    <row r="15" ht="16.5" spans="1:17">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3202,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -3216,19 +3270,22 @@
         <v>1</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>88</v>
+        <v>54</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:16">
+    <row r="16" ht="16.5" spans="1:17">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3239,7 +3296,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -3253,19 +3310,22 @@
         <v>3</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>91</v>
+        <v>54</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:16">
+    <row r="17" ht="16.5" spans="1:17">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3276,7 +3336,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -3290,19 +3350,22 @@
         <v>3</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>94</v>
+        <v>54</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:16">
+    <row r="18" ht="16.5" spans="1:17">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3313,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -3327,19 +3390,22 @@
         <v>2</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>96</v>
+        <v>53</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:16">
+    <row r="19" ht="16.5" spans="1:17">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3350,7 +3416,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -3364,19 +3430,22 @@
         <v>2</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:16">
+    <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3387,7 +3456,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -3401,19 +3470,22 @@
         <v>3</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>104</v>
+        <v>54</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:16">
+    <row r="21" ht="16.5" spans="1:17">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3424,7 +3496,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -3438,19 +3510,22 @@
         <v>2</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>108</v>
+        <v>53</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:16">
+    <row r="22" ht="16.5" spans="1:17">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -3461,7 +3536,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -3475,19 +3550,22 @@
         <v>3</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>111</v>
+        <v>54</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:16">
+    <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3498,7 +3576,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -3512,19 +3590,22 @@
         <v>3</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>114</v>
+        <v>54</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:16">
+    <row r="24" ht="16.5" spans="1:17">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -3535,7 +3616,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -3549,19 +3630,22 @@
         <v>3</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" s="20" t="s">
         <v>53</v>
       </c>
+      <c r="N24" s="6">
+        <v>2</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="25" ht="16.5" spans="1:16">
+    <row r="25" ht="16.5" spans="1:17">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -3572,7 +3656,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -3586,19 +3670,22 @@
         <v>3</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="N25" s="6">
+        <v>2</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:16">
+    <row r="26" ht="16.5" spans="1:17">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -3609,7 +3696,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -3623,19 +3710,22 @@
         <v>3</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="N26" s="6">
+        <v>2</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:16">
+    <row r="27" ht="16.5" spans="1:17">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -3646,7 +3736,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3660,19 +3750,22 @@
         <v>3</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" s="6">
+        <v>2</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>62</v>
+      <c r="Q27" s="23" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:16">
+    <row r="28" ht="16.5" spans="1:17">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -3683,7 +3776,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -3697,19 +3790,22 @@
         <v>3</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:16">
+    <row r="29" ht="16.5" spans="1:17">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -3720,7 +3816,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -3734,19 +3830,22 @@
         <v>2</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>123</v>
+        <v>53</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:16">
+    <row r="30" ht="16.5" spans="1:17">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -3757,7 +3856,7 @@
         <v>34</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -3771,19 +3870,22 @@
         <v>1</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P30" s="20" t="s">
-        <v>91</v>
+        <v>53</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:17">
+    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:18">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -3794,27 +3896,30 @@
         <v>35</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L31" s="6">
         <f>IF(IF(B31=1,VLOOKUP(C31,[1]效果查询!$A$2:$F$53,6,0),0)="所在队伍",1,IF(IF(B31=1,VLOOKUP(C31,[1]效果查询!$A$2:$F$53,6,0),0)="全局",3,IF(IF(B31=1,VLOOKUP(C31,[1]效果查询!$A$2:$F$53,6,0),0)="卡牌自身",2,"缺省")))</f>
         <v>2</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P31" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q31" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="R31" s="24"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:17">
+    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:18">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -3825,27 +3930,30 @@
         <v>36</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L32" s="6">
         <f>IF(IF(B32=1,VLOOKUP(C32,[1]效果查询!$A$2:$F$53,6,0),0)="所在队伍",1,IF(IF(B32=1,VLOOKUP(C32,[1]效果查询!$A$2:$F$53,6,0),0)="全局",3,IF(IF(B32=1,VLOOKUP(C32,[1]效果查询!$A$2:$F$53,6,0),0)="卡牌自身",2,"缺省")))</f>
         <v>2</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P32" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q32" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="R32" s="24"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="1:17">
+    <row r="33" s="1" customFormat="1" ht="16.5" spans="1:18">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -3856,27 +3964,30 @@
         <v>37</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L33" s="6">
         <f>IF(IF(B33=1,VLOOKUP(C33,[1]效果查询!$A$2:$F$53,6,0),0)="所在队伍",1,IF(IF(B33=1,VLOOKUP(C33,[1]效果查询!$A$2:$F$53,6,0),0)="全局",3,IF(IF(B33=1,VLOOKUP(C33,[1]效果查询!$A$2:$F$53,6,0),0)="卡牌自身",2,"缺省")))</f>
         <v>2</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P33" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q33" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="R33" s="24"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:17">
+    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:18">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -3887,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -3897,24 +4008,28 @@
         <v>2</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="P34" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q34" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="R34" s="24"/>
     </row>
-    <row r="35" ht="16.5" spans="7:13">
+    <row r="35" ht="16.5" spans="7:14">
       <c r="G35" s="17"/>
       <c r="I35" s="17"/>
       <c r="L35" s="6"/>
       <c r="M35" s="14"/>
+      <c r="N35" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L4:L35">
